--- a/countries.xlsx
+++ b/countries.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoinehawwa/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoinehawwa/Documents/GitHub/Expiry_Date_Monitor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46A9F16-5BA0-5147-9B45-5AD53C24241E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BC1497-8379-294B-91D0-1DB0B51C62AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{DBA614D0-BE89-C543-B716-D31BB5A5156D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" activeTab="1" xr2:uid="{DBA614D0-BE89-C543-B716-D31BB5A5156D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3437,7 +3437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20">
+    <row r="2" spans="1:5" ht="21">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Afghanistan', 'AF', 'AFG');</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20">
+    <row r="3" spans="1:5" ht="21">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Albania', 'AL', 'ALB');</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20">
+    <row r="4" spans="1:5" ht="21">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Algeria', 'DZ', 'DZA');</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20">
+    <row r="5" spans="1:5" ht="21">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('American Samoa', 'AS', 'ASM');</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20">
+    <row r="6" spans="1:5" ht="21">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Andorra', 'AD', 'AND');</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20">
+    <row r="7" spans="1:5" ht="21">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Angola', 'AO', 'AGO');</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20">
+    <row r="8" spans="1:5" ht="21">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Anguilla', 'AI', 'AIA');</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20">
+    <row r="9" spans="1:5" ht="21">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Antarctica', 'AQ', 'ATA');</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20">
+    <row r="10" spans="1:5" ht="21">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Antigua and Barbuda', 'AG', 'ATG');</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20">
+    <row r="11" spans="1:5" ht="21">
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Argentina', 'AR', 'ARG');</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20">
+    <row r="12" spans="1:5" ht="21">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Armenia', 'AM', 'ARM');</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20">
+    <row r="13" spans="1:5" ht="21">
       <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Aruba', 'AW', 'ABW');</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20">
+    <row r="14" spans="1:5" ht="21">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Australia', 'AU', 'AUS');</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20">
+    <row r="15" spans="1:5" ht="21">
       <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Austria', 'AT', 'AUT');</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="20">
+    <row r="16" spans="1:5" ht="21">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Azerbaijan', 'AZ', 'AZE');</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20">
+    <row r="17" spans="1:5" ht="21">
       <c r="A17" s="2" t="s">
         <v>49</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Bahamas (the)', 'BS', 'BHS');</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="20">
+    <row r="18" spans="1:5" ht="21">
       <c r="A18" s="2" t="s">
         <v>52</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Bahrain', 'BH', 'BHR');</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="20">
+    <row r="19" spans="1:5" ht="21">
       <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Bangladesh', 'BD', 'BGD');</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="20">
+    <row r="20" spans="1:5" ht="21">
       <c r="A20" s="2" t="s">
         <v>58</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Barbados', 'BB', 'BRB');</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="20">
+    <row r="21" spans="1:5" ht="21">
       <c r="A21" s="2" t="s">
         <v>61</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Belarus', 'BY', 'BLR');</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="20">
+    <row r="22" spans="1:5" ht="21">
       <c r="A22" s="2" t="s">
         <v>64</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Belgium', 'BE', 'BEL');</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="20">
+    <row r="23" spans="1:5" ht="21">
       <c r="A23" s="2" t="s">
         <v>67</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Belize', 'BZ', 'BLZ');</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="20">
+    <row r="24" spans="1:5" ht="21">
       <c r="A24" s="2" t="s">
         <v>70</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Benin', 'BJ', 'BEN');</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="20">
+    <row r="25" spans="1:5" ht="21">
       <c r="A25" s="2" t="s">
         <v>73</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Bermuda', 'BM', 'BMU');</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="20">
+    <row r="26" spans="1:5" ht="21">
       <c r="A26" s="2" t="s">
         <v>76</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Bhutan', 'BT', 'BTN');</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="20">
+    <row r="27" spans="1:5" ht="21">
       <c r="A27" s="2" t="s">
         <v>79</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Bolivia (Plurinational State of)', 'BO', 'BOL');</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="20">
+    <row r="28" spans="1:5" ht="21">
       <c r="A28" s="2" t="s">
         <v>82</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Bonaire, Sint Eustatius and Saba', 'BQ', 'BES');</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="20">
+    <row r="29" spans="1:5" ht="21">
       <c r="A29" s="2" t="s">
         <v>85</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Bosnia and Herzegovina', 'BA', 'BIH');</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="20">
+    <row r="30" spans="1:5" ht="21">
       <c r="A30" s="2" t="s">
         <v>88</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Botswana', 'BW', 'BWA');</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="20">
+    <row r="31" spans="1:5" ht="21">
       <c r="A31" s="2" t="s">
         <v>91</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Bouvet Island', 'BV', 'BVT');</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="20">
+    <row r="32" spans="1:5" ht="21">
       <c r="A32" s="2" t="s">
         <v>94</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Brazil', 'BR', 'BRA');</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="20">
+    <row r="33" spans="1:5" ht="21">
       <c r="A33" s="2" t="s">
         <v>97</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('British Indian Ocean Territory (the)', 'IO', 'IOT');</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="20">
+    <row r="34" spans="1:5" ht="21">
       <c r="A34" s="2" t="s">
         <v>100</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Brunei Darussalam', 'BN', 'BRN');</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="20">
+    <row r="35" spans="1:5" ht="21">
       <c r="A35" s="2" t="s">
         <v>103</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Bulgaria', 'BG', 'BGR');</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="20">
+    <row r="36" spans="1:5" ht="21">
       <c r="A36" s="2" t="s">
         <v>106</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Burkina Faso', 'BF', 'BFA');</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="20">
+    <row r="37" spans="1:5" ht="21">
       <c r="A37" s="2" t="s">
         <v>109</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Burundi', 'BI', 'BDI');</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="20">
+    <row r="38" spans="1:5" ht="21">
       <c r="A38" s="2" t="s">
         <v>112</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Cabo Verde', 'CV', 'CPV');</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="20">
+    <row r="39" spans="1:5" ht="21">
       <c r="A39" s="2" t="s">
         <v>115</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Cambodia', 'KH', 'KHM');</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="20">
+    <row r="40" spans="1:5" ht="21">
       <c r="A40" s="2" t="s">
         <v>118</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Cameroon', 'CM', 'CMR');</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="20">
+    <row r="41" spans="1:5" ht="21">
       <c r="A41" s="2" t="s">
         <v>121</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Canada', 'CA', 'CAN');</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="20">
+    <row r="42" spans="1:5" ht="21">
       <c r="A42" s="2" t="s">
         <v>124</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Cayman Islands (the)', 'KY', 'CYM');</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="20">
+    <row r="43" spans="1:5" ht="21">
       <c r="A43" s="2" t="s">
         <v>127</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Central African Republic (the)', 'CF', 'CAF');</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="20">
+    <row r="44" spans="1:5" ht="21">
       <c r="A44" s="2" t="s">
         <v>130</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Chad', 'TD', 'TCD');</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="20">
+    <row r="45" spans="1:5" ht="21">
       <c r="A45" s="2" t="s">
         <v>133</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Chile', 'CL', 'CHL');</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="20">
+    <row r="46" spans="1:5" ht="21">
       <c r="A46" s="2" t="s">
         <v>136</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('China', 'CN', 'CHN');</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="20">
+    <row r="47" spans="1:5" ht="21">
       <c r="A47" s="2" t="s">
         <v>139</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Christmas Island', 'CX', 'CXR');</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="20">
+    <row r="48" spans="1:5" ht="21">
       <c r="A48" s="2" t="s">
         <v>142</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Cocos (Keeling) Islands (the)', 'CC', 'CCK');</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="20">
+    <row r="49" spans="1:5" ht="21">
       <c r="A49" s="2" t="s">
         <v>145</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Colombia', 'CO', 'COL');</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="20">
+    <row r="50" spans="1:5" ht="21">
       <c r="A50" s="2" t="s">
         <v>148</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Comoros (the)', 'KM', 'COM');</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="20">
+    <row r="51" spans="1:5" ht="21">
       <c r="A51" s="2" t="s">
         <v>151</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Congo (the Democratic Republic of the)', 'CD', 'COD');</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="20">
+    <row r="52" spans="1:5" ht="21">
       <c r="A52" s="2" t="s">
         <v>154</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Congo (the)', 'CG', 'COG');</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="20">
+    <row r="53" spans="1:5" ht="21">
       <c r="A53" s="2" t="s">
         <v>157</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Cook Islands (the)', 'CK', 'COK');</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="20">
+    <row r="54" spans="1:5" ht="21">
       <c r="A54" s="2" t="s">
         <v>160</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Costa Rica', 'CR', 'CRI');</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="20">
+    <row r="55" spans="1:5" ht="21">
       <c r="A55" s="2" t="s">
         <v>163</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Croatia', 'HR', 'HRV');</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="20">
+    <row r="56" spans="1:5" ht="21">
       <c r="A56" s="2" t="s">
         <v>166</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Cuba', 'CU', 'CUB');</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="20">
+    <row r="57" spans="1:5" ht="21">
       <c r="A57" s="2" t="s">
         <v>169</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Curaçao', 'CW', 'CUW');</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="20">
+    <row r="58" spans="1:5" ht="21">
       <c r="A58" s="2" t="s">
         <v>172</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Cyprus', 'CY', 'CYP');</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="20">
+    <row r="59" spans="1:5" ht="21">
       <c r="A59" s="2" t="s">
         <v>175</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Czechia', 'CZ', 'CZE');</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="20">
+    <row r="60" spans="1:5" ht="21">
       <c r="A60" s="2" t="s">
         <v>178</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Côte d'Ivoire', 'CI', 'CIV');</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="20">
+    <row r="61" spans="1:5" ht="21">
       <c r="A61" s="2" t="s">
         <v>181</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Denmark', 'DK', 'DNK');</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="20">
+    <row r="62" spans="1:5" ht="21">
       <c r="A62" s="2" t="s">
         <v>184</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Djibouti', 'DJ', 'DJI');</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="20">
+    <row r="63" spans="1:5" ht="21">
       <c r="A63" s="2" t="s">
         <v>187</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Dominica', 'DM', 'DMA');</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="20">
+    <row r="64" spans="1:5" ht="21">
       <c r="A64" s="2" t="s">
         <v>190</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Dominican Republic (the)', 'DO', 'DOM');</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="20">
+    <row r="65" spans="1:5" ht="21">
       <c r="A65" s="2" t="s">
         <v>193</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Ecuador', 'EC', 'ECU');</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="20">
+    <row r="66" spans="1:5" ht="21">
       <c r="A66" s="2" t="s">
         <v>196</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Egypt', 'EG', 'EGY');</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="20">
+    <row r="67" spans="1:5" ht="21">
       <c r="A67" s="2" t="s">
         <v>199</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('El Salvador', 'SV', 'SLV');</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="20">
+    <row r="68" spans="1:5" ht="21">
       <c r="A68" s="2" t="s">
         <v>202</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Equatorial Guinea', 'GQ', 'GNQ');</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="20">
+    <row r="69" spans="1:5" ht="21">
       <c r="A69" s="2" t="s">
         <v>205</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Eritrea', 'ER', 'ERI');</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="20">
+    <row r="70" spans="1:5" ht="21">
       <c r="A70" s="2" t="s">
         <v>208</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Estonia', 'EE', 'EST');</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="20">
+    <row r="71" spans="1:5" ht="21">
       <c r="A71" s="2" t="s">
         <v>211</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Eswatini', 'SZ', 'SWZ');</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="20">
+    <row r="72" spans="1:5" ht="21">
       <c r="A72" s="2" t="s">
         <v>214</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Ethiopia', 'ET', 'ETH');</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="20">
+    <row r="73" spans="1:5" ht="21">
       <c r="A73" s="2" t="s">
         <v>217</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Falkland Islands (the) [Malvinas]', 'FK', 'FLK');</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="20">
+    <row r="74" spans="1:5" ht="21">
       <c r="A74" s="2" t="s">
         <v>220</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Faroe Islands (the)', 'FO', 'FRO');</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="20">
+    <row r="75" spans="1:5" ht="21">
       <c r="A75" s="2" t="s">
         <v>223</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Fiji', 'FJ', 'FJI');</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="20">
+    <row r="76" spans="1:5" ht="21">
       <c r="A76" s="2" t="s">
         <v>226</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Finland', 'FI', 'FIN');</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="20">
+    <row r="77" spans="1:5" ht="21">
       <c r="A77" s="2" t="s">
         <v>229</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('France', 'FR', 'FRA');</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="20">
+    <row r="78" spans="1:5" ht="21">
       <c r="A78" s="2" t="s">
         <v>232</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('French Guiana', 'GF', 'GUF');</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="20">
+    <row r="79" spans="1:5" ht="21">
       <c r="A79" s="2" t="s">
         <v>235</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('French Polynesia', 'PF', 'PYF');</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="20">
+    <row r="80" spans="1:5" ht="21">
       <c r="A80" s="2" t="s">
         <v>238</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('French Southern Territories (the)', 'TF', 'ATF');</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="20">
+    <row r="81" spans="1:5" ht="21">
       <c r="A81" s="2" t="s">
         <v>241</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Gabon', 'GA', 'GAB');</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="20">
+    <row r="82" spans="1:5" ht="21">
       <c r="A82" s="2" t="s">
         <v>244</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Gambia (the)', 'GM', 'GMB');</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="20">
+    <row r="83" spans="1:5" ht="21">
       <c r="A83" s="2" t="s">
         <v>247</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Georgia', 'GE', 'GEO');</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="20">
+    <row r="84" spans="1:5" ht="21">
       <c r="A84" s="2" t="s">
         <v>250</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Germany', 'DE', 'DEU');</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="20">
+    <row r="85" spans="1:5" ht="21">
       <c r="A85" s="2" t="s">
         <v>253</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Ghana', 'GH', 'GHA');</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="20">
+    <row r="86" spans="1:5" ht="21">
       <c r="A86" s="2" t="s">
         <v>256</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Gibraltar', 'GI', 'GIB');</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="20">
+    <row r="87" spans="1:5" ht="21">
       <c r="A87" s="2" t="s">
         <v>259</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Greece', 'GR', 'GRC');</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="20">
+    <row r="88" spans="1:5" ht="21">
       <c r="A88" s="2" t="s">
         <v>262</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Greenland', 'GL', 'GRL');</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="20">
+    <row r="89" spans="1:5" ht="21">
       <c r="A89" s="2" t="s">
         <v>265</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Grenada', 'GD', 'GRD');</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="20">
+    <row r="90" spans="1:5" ht="21">
       <c r="A90" s="2" t="s">
         <v>268</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Guadeloupe', 'GP', 'GLP');</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="20">
+    <row r="91" spans="1:5" ht="21">
       <c r="A91" s="2" t="s">
         <v>271</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Guam', 'GU', 'GUM');</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="20">
+    <row r="92" spans="1:5" ht="21">
       <c r="A92" s="2" t="s">
         <v>274</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Guatemala', 'GT', 'GTM');</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="20">
+    <row r="93" spans="1:5" ht="21">
       <c r="A93" s="2" t="s">
         <v>277</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Guernsey', 'GG', 'GGY');</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="20">
+    <row r="94" spans="1:5" ht="21">
       <c r="A94" s="2" t="s">
         <v>280</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Guinea', 'GN', 'GIN');</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="20">
+    <row r="95" spans="1:5" ht="21">
       <c r="A95" s="2" t="s">
         <v>283</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Guinea-Bissau', 'GW', 'GNB');</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="20">
+    <row r="96" spans="1:5" ht="21">
       <c r="A96" s="2" t="s">
         <v>286</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Guyana', 'GY', 'GUY');</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="20">
+    <row r="97" spans="1:5" ht="21">
       <c r="A97" s="2" t="s">
         <v>289</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Haiti', 'HT', 'HTI');</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="20">
+    <row r="98" spans="1:5" ht="21">
       <c r="A98" s="2" t="s">
         <v>292</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Heard Island and McDonald Islands', 'HM', 'HMD');</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="20">
+    <row r="99" spans="1:5" ht="21">
       <c r="A99" s="2" t="s">
         <v>295</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Holy See (the)', 'VA', 'VAT');</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="20">
+    <row r="100" spans="1:5" ht="21">
       <c r="A100" s="2" t="s">
         <v>298</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Honduras', 'HN', 'HND');</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="20">
+    <row r="101" spans="1:5" ht="21">
       <c r="A101" s="2" t="s">
         <v>301</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Hong Kong', 'HK', 'HKG');</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="20">
+    <row r="102" spans="1:5" ht="21">
       <c r="A102" s="2" t="s">
         <v>304</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Hungary', 'HU', 'HUN');</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="20">
+    <row r="103" spans="1:5" ht="21">
       <c r="A103" s="2" t="s">
         <v>307</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Iceland', 'IS', 'ISL');</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="20">
+    <row r="104" spans="1:5" ht="21">
       <c r="A104" s="2" t="s">
         <v>310</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('India', 'IN', 'IND');</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="20">
+    <row r="105" spans="1:5" ht="21">
       <c r="A105" s="2" t="s">
         <v>313</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Indonesia', 'ID', 'IDN');</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="20">
+    <row r="106" spans="1:5" ht="21">
       <c r="A106" s="2" t="s">
         <v>316</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Iran (Islamic Republic of)', 'IR', 'IRN');</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="20">
+    <row r="107" spans="1:5" ht="21">
       <c r="A107" s="2" t="s">
         <v>319</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Iraq', 'IQ', 'IRQ');</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="20">
+    <row r="108" spans="1:5" ht="21">
       <c r="A108" s="2" t="s">
         <v>322</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Ireland', 'IE', 'IRL');</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="20">
+    <row r="109" spans="1:5" ht="21">
       <c r="A109" s="2" t="s">
         <v>325</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Isle of Man', 'IM', 'IMN');</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="20">
+    <row r="110" spans="1:5" ht="21">
       <c r="A110" s="2" t="s">
         <v>328</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Israel', 'IL', 'ISR');</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="20">
+    <row r="111" spans="1:5" ht="21">
       <c r="A111" s="2" t="s">
         <v>331</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Italy', 'IT', 'ITA');</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="20">
+    <row r="112" spans="1:5" ht="21">
       <c r="A112" s="2" t="s">
         <v>334</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Jamaica', 'JM', 'JAM');</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="20">
+    <row r="113" spans="1:5" ht="21">
       <c r="A113" s="2" t="s">
         <v>337</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Japan', 'JP', 'JPN');</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="20">
+    <row r="114" spans="1:5" ht="21">
       <c r="A114" s="2" t="s">
         <v>340</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Jersey', 'JE', 'JEY');</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="20">
+    <row r="115" spans="1:5" ht="21">
       <c r="A115" s="2" t="s">
         <v>343</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Jordan', 'JO', 'JOR');</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="20">
+    <row r="116" spans="1:5" ht="21">
       <c r="A116" s="2" t="s">
         <v>346</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Kazakhstan', 'KZ', 'KAZ');</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="20">
+    <row r="117" spans="1:5" ht="21">
       <c r="A117" s="2" t="s">
         <v>349</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Kenya', 'KE', 'KEN');</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="20">
+    <row r="118" spans="1:5" ht="21">
       <c r="A118" s="2" t="s">
         <v>352</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Kiribati', 'KI', 'KIR');</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="20">
+    <row r="119" spans="1:5" ht="21">
       <c r="A119" s="2" t="s">
         <v>355</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Korea (the Democratic People's Republic of)', 'KP', 'PRK');</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="20">
+    <row r="120" spans="1:5" ht="21">
       <c r="A120" s="2" t="s">
         <v>358</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Korea (the Republic of)', 'KR', 'KOR');</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="20">
+    <row r="121" spans="1:5" ht="21">
       <c r="A121" s="2" t="s">
         <v>361</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Kuwait', 'KW', 'KWT');</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="20">
+    <row r="122" spans="1:5" ht="21">
       <c r="A122" s="2" t="s">
         <v>364</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Kyrgyzstan', 'KG', 'KGZ');</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="20">
+    <row r="123" spans="1:5" ht="21">
       <c r="A123" s="2" t="s">
         <v>367</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Lao People's Democratic Republic (the)', 'LA', 'LAO');</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="20">
+    <row r="124" spans="1:5" ht="21">
       <c r="A124" s="2" t="s">
         <v>370</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Latvia', 'LV', 'LVA');</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="20">
+    <row r="125" spans="1:5" ht="21">
       <c r="A125" s="2" t="s">
         <v>373</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Lebanon', 'LB', 'LBN');</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="20">
+    <row r="126" spans="1:5" ht="21">
       <c r="A126" s="2" t="s">
         <v>376</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Lesotho', 'LS', 'LSO');</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="20">
+    <row r="127" spans="1:5" ht="21">
       <c r="A127" s="2" t="s">
         <v>379</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Liberia', 'LR', 'LBR');</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="20">
+    <row r="128" spans="1:5" ht="21">
       <c r="A128" s="2" t="s">
         <v>382</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Libya', 'LY', 'LBY');</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="20">
+    <row r="129" spans="1:5" ht="21">
       <c r="A129" s="2" t="s">
         <v>385</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Liechtenstein', 'LI', 'LIE');</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="20">
+    <row r="130" spans="1:5" ht="21">
       <c r="A130" s="2" t="s">
         <v>388</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Lithuania', 'LT', 'LTU');</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="20">
+    <row r="131" spans="1:5" ht="21">
       <c r="A131" s="2" t="s">
         <v>391</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Luxembourg', 'LU', 'LUX');</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="20">
+    <row r="132" spans="1:5" ht="21">
       <c r="A132" s="2" t="s">
         <v>394</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Macao', 'MO', 'MAC');</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="20">
+    <row r="133" spans="1:5" ht="21">
       <c r="A133" s="2" t="s">
         <v>397</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Madagascar', 'MG', 'MDG');</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="20">
+    <row r="134" spans="1:5" ht="21">
       <c r="A134" s="2" t="s">
         <v>400</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Malawi', 'MW', 'MWI');</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="20">
+    <row r="135" spans="1:5" ht="21">
       <c r="A135" s="2" t="s">
         <v>403</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Malaysia', 'MY', 'MYS');</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="20">
+    <row r="136" spans="1:5" ht="21">
       <c r="A136" s="2" t="s">
         <v>406</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Maldives', 'MV', 'MDV');</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="20">
+    <row r="137" spans="1:5" ht="21">
       <c r="A137" s="2" t="s">
         <v>409</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Mali', 'ML', 'MLI');</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="20">
+    <row r="138" spans="1:5" ht="21">
       <c r="A138" s="2" t="s">
         <v>412</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Malta', 'MT', 'MLT');</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="20">
+    <row r="139" spans="1:5" ht="21">
       <c r="A139" s="2" t="s">
         <v>415</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Marshall Islands (the)', 'MH', 'MHL');</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="20">
+    <row r="140" spans="1:5" ht="21">
       <c r="A140" s="2" t="s">
         <v>418</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Martinique', 'MQ', 'MTQ');</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="20">
+    <row r="141" spans="1:5" ht="21">
       <c r="A141" s="2" t="s">
         <v>421</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Mauritania', 'MR', 'MRT');</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="20">
+    <row r="142" spans="1:5" ht="21">
       <c r="A142" s="2" t="s">
         <v>424</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Mauritius', 'MU', 'MUS');</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="20">
+    <row r="143" spans="1:5" ht="21">
       <c r="A143" s="2" t="s">
         <v>427</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Mayotte', 'YT', 'MYT');</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="20">
+    <row r="144" spans="1:5" ht="21">
       <c r="A144" s="2" t="s">
         <v>430</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Mexico', 'MX', 'MEX');</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="20">
+    <row r="145" spans="1:5" ht="21">
       <c r="A145" s="2" t="s">
         <v>433</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Micronesia (Federated States of)', 'FM', 'FSM');</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="20">
+    <row r="146" spans="1:5" ht="21">
       <c r="A146" s="2" t="s">
         <v>436</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Moldova (the Republic of)', 'MD', 'MDA');</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="20">
+    <row r="147" spans="1:5" ht="21">
       <c r="A147" s="2" t="s">
         <v>439</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Monaco', 'MC', 'MCO');</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="20">
+    <row r="148" spans="1:5" ht="21">
       <c r="A148" s="2" t="s">
         <v>442</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Mongolia', 'MN', 'MNG');</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="20">
+    <row r="149" spans="1:5" ht="21">
       <c r="A149" s="2" t="s">
         <v>445</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Montenegro', 'ME', 'MNE');</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="20">
+    <row r="150" spans="1:5" ht="21">
       <c r="A150" s="2" t="s">
         <v>448</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Montserrat', 'MS', 'MSR');</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="20">
+    <row r="151" spans="1:5" ht="21">
       <c r="A151" s="2" t="s">
         <v>451</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Morocco', 'MA', 'MAR');</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="20">
+    <row r="152" spans="1:5" ht="21">
       <c r="A152" s="2" t="s">
         <v>454</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Mozambique', 'MZ', 'MOZ');</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="20">
+    <row r="153" spans="1:5" ht="21">
       <c r="A153" s="2" t="s">
         <v>457</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Myanmar', 'MM', 'MMR');</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="20">
+    <row r="154" spans="1:5" ht="21">
       <c r="A154" s="2" t="s">
         <v>460</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Namibia', 'NA', 'NAM');</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="20">
+    <row r="155" spans="1:5" ht="21">
       <c r="A155" s="2" t="s">
         <v>463</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Nauru', 'NR', 'NRU');</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="20">
+    <row r="156" spans="1:5" ht="21">
       <c r="A156" s="2" t="s">
         <v>466</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Nepal', 'NP', 'NPL');</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="20">
+    <row r="157" spans="1:5" ht="21">
       <c r="A157" s="2" t="s">
         <v>469</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Netherlands (the)', 'NL', 'NLD');</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="20">
+    <row r="158" spans="1:5" ht="21">
       <c r="A158" s="2" t="s">
         <v>472</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('New Caledonia', 'NC', 'NCL');</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="20">
+    <row r="159" spans="1:5" ht="21">
       <c r="A159" s="2" t="s">
         <v>475</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('New Zealand', 'NZ', 'NZL');</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="20">
+    <row r="160" spans="1:5" ht="21">
       <c r="A160" s="2" t="s">
         <v>478</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Nicaragua', 'NI', 'NIC');</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="20">
+    <row r="161" spans="1:5" ht="21">
       <c r="A161" s="2" t="s">
         <v>481</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Niger (the)', 'NE', 'NER');</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="20">
+    <row r="162" spans="1:5" ht="21">
       <c r="A162" s="2" t="s">
         <v>484</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Nigeria', 'NG', 'NGA');</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="20">
+    <row r="163" spans="1:5" ht="21">
       <c r="A163" s="2" t="s">
         <v>487</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Niue', 'NU', 'NIU');</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="20">
+    <row r="164" spans="1:5" ht="21">
       <c r="A164" s="2" t="s">
         <v>490</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Norfolk Island', 'NF', 'NFK');</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="20">
+    <row r="165" spans="1:5" ht="21">
       <c r="A165" s="2" t="s">
         <v>493</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Northern Mariana Islands (the)', 'MP', 'MNP');</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="20">
+    <row r="166" spans="1:5" ht="21">
       <c r="A166" s="2" t="s">
         <v>496</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Norway', 'NO', 'NOR');</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="20">
+    <row r="167" spans="1:5" ht="21">
       <c r="A167" s="2" t="s">
         <v>499</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Oman', 'OM', 'OMN');</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="20">
+    <row r="168" spans="1:5" ht="21">
       <c r="A168" s="2" t="s">
         <v>502</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Pakistan', 'PK', 'PAK');</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="20">
+    <row r="169" spans="1:5" ht="21">
       <c r="A169" s="2" t="s">
         <v>505</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Palau', 'PW', 'PLW');</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="20">
+    <row r="170" spans="1:5" ht="21">
       <c r="A170" s="2" t="s">
         <v>508</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Palestine, State of', 'PS', 'PSE');</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="20">
+    <row r="171" spans="1:5" ht="21">
       <c r="A171" s="2" t="s">
         <v>511</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Panama', 'PA', 'PAN');</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="20">
+    <row r="172" spans="1:5" ht="21">
       <c r="A172" s="2" t="s">
         <v>514</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Papua New Guinea', 'PG', 'PNG');</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="20">
+    <row r="173" spans="1:5" ht="21">
       <c r="A173" s="2" t="s">
         <v>517</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Paraguay', 'PY', 'PRY');</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="20">
+    <row r="174" spans="1:5" ht="21">
       <c r="A174" s="2" t="s">
         <v>520</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Peru', 'PE', 'PER');</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="20">
+    <row r="175" spans="1:5" ht="21">
       <c r="A175" s="2" t="s">
         <v>523</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Philippines (the)', 'PH', 'PHL');</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="20">
+    <row r="176" spans="1:5" ht="21">
       <c r="A176" s="2" t="s">
         <v>526</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Pitcairn', 'PN', 'PCN');</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="20">
+    <row r="177" spans="1:5" ht="21">
       <c r="A177" s="2" t="s">
         <v>529</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Poland', 'PL', 'POL');</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="20">
+    <row r="178" spans="1:5" ht="21">
       <c r="A178" s="2" t="s">
         <v>532</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Portugal', 'PT', 'PRT');</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="20">
+    <row r="179" spans="1:5" ht="21">
       <c r="A179" s="2" t="s">
         <v>535</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Puerto Rico', 'PR', 'PRI');</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="20">
+    <row r="180" spans="1:5" ht="21">
       <c r="A180" s="2" t="s">
         <v>538</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Qatar', 'QA', 'QAT');</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="20">
+    <row r="181" spans="1:5" ht="21">
       <c r="A181" s="2" t="s">
         <v>541</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Republic of North Macedonia', 'MK', 'MKD');</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="20">
+    <row r="182" spans="1:5" ht="21">
       <c r="A182" s="2" t="s">
         <v>544</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Romania', 'RO', 'ROU');</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="20">
+    <row r="183" spans="1:5" ht="21">
       <c r="A183" s="2" t="s">
         <v>547</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Russian Federation (the)', 'RU', 'RUS');</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="20">
+    <row r="184" spans="1:5" ht="21">
       <c r="A184" s="2" t="s">
         <v>550</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Rwanda', 'RW', 'RWA');</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="20">
+    <row r="185" spans="1:5" ht="21">
       <c r="A185" s="2" t="s">
         <v>553</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Réunion', 'RE', 'REU');</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="20">
+    <row r="186" spans="1:5" ht="21">
       <c r="A186" s="2" t="s">
         <v>556</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Saint Barthélemy', 'BL', 'BLM');</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="20">
+    <row r="187" spans="1:5" ht="21">
       <c r="A187" s="2" t="s">
         <v>559</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Saint Helena, Ascension and Tristan da Cunha', 'SH', 'SHN');</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="20">
+    <row r="188" spans="1:5" ht="21">
       <c r="A188" s="2" t="s">
         <v>562</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Saint Kitts and Nevis', 'KN', 'KNA');</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="20">
+    <row r="189" spans="1:5" ht="21">
       <c r="A189" s="2" t="s">
         <v>565</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Saint Lucia', 'LC', 'LCA');</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="20">
+    <row r="190" spans="1:5" ht="21">
       <c r="A190" s="2" t="s">
         <v>568</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Saint Martin (French part)', 'MF', 'MAF');</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="20">
+    <row r="191" spans="1:5" ht="21">
       <c r="A191" s="2" t="s">
         <v>571</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Saint Pierre and Miquelon', 'PM', 'SPM');</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="20">
+    <row r="192" spans="1:5" ht="21">
       <c r="A192" s="2" t="s">
         <v>574</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Saint Vincent and the Grenadines', 'VC', 'VCT');</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="20">
+    <row r="193" spans="1:5" ht="21">
       <c r="A193" s="2" t="s">
         <v>577</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Samoa', 'WS', 'WSM');</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="20">
+    <row r="194" spans="1:5" ht="21">
       <c r="A194" s="2" t="s">
         <v>580</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('San Marino', 'SM', 'SMR');</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="20">
+    <row r="195" spans="1:5" ht="21">
       <c r="A195" s="2" t="s">
         <v>583</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Sao Tome and Principe', 'ST', 'STP');</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="20">
+    <row r="196" spans="1:5" ht="21">
       <c r="A196" s="2" t="s">
         <v>586</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Saudi Arabia', 'SA', 'SAU');</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="20">
+    <row r="197" spans="1:5" ht="21">
       <c r="A197" s="2" t="s">
         <v>589</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Senegal', 'SN', 'SEN');</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="20">
+    <row r="198" spans="1:5" ht="21">
       <c r="A198" s="2" t="s">
         <v>592</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Serbia', 'RS', 'SRB');</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="20">
+    <row r="199" spans="1:5" ht="21">
       <c r="A199" s="2" t="s">
         <v>595</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Seychelles', 'SC', 'SYC');</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="20">
+    <row r="200" spans="1:5" ht="21">
       <c r="A200" s="2" t="s">
         <v>598</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Sierra Leone', 'SL', 'SLE');</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="20">
+    <row r="201" spans="1:5" ht="21">
       <c r="A201" s="2" t="s">
         <v>601</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Singapore', 'SG', 'SGP');</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="20">
+    <row r="202" spans="1:5" ht="21">
       <c r="A202" s="2" t="s">
         <v>604</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Sint Maarten (Dutch part)', 'SX', 'SXM');</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="20">
+    <row r="203" spans="1:5" ht="21">
       <c r="A203" s="2" t="s">
         <v>607</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Slovakia', 'SK', 'SVK');</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="20">
+    <row r="204" spans="1:5" ht="21">
       <c r="A204" s="2" t="s">
         <v>610</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Slovenia', 'SI', 'SVN');</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="20">
+    <row r="205" spans="1:5" ht="21">
       <c r="A205" s="2" t="s">
         <v>613</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Solomon Islands', 'SB', 'SLB');</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="20">
+    <row r="206" spans="1:5" ht="21">
       <c r="A206" s="2" t="s">
         <v>616</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Somalia', 'SO', 'SOM');</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="20">
+    <row r="207" spans="1:5" ht="21">
       <c r="A207" s="2" t="s">
         <v>619</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('South Africa', 'ZA', 'ZAF');</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="20">
+    <row r="208" spans="1:5" ht="21">
       <c r="A208" s="2" t="s">
         <v>622</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('South Georgia and the South Sandwich Islands', 'GS', 'SGS');</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="20">
+    <row r="209" spans="1:5" ht="21">
       <c r="A209" s="2" t="s">
         <v>625</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('South Sudan', 'SS', 'SSD');</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="20">
+    <row r="210" spans="1:5" ht="21">
       <c r="A210" s="2" t="s">
         <v>628</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Spain', 'ES', 'ESP');</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="20">
+    <row r="211" spans="1:5" ht="21">
       <c r="A211" s="2" t="s">
         <v>631</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Sri Lanka', 'LK', 'LKA');</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="20">
+    <row r="212" spans="1:5" ht="21">
       <c r="A212" s="2" t="s">
         <v>634</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Sudan (the)', 'SD', 'SDN');</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="20">
+    <row r="213" spans="1:5" ht="21">
       <c r="A213" s="2" t="s">
         <v>637</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Suriname', 'SR', 'SUR');</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="20">
+    <row r="214" spans="1:5" ht="21">
       <c r="A214" s="2" t="s">
         <v>640</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Svalbard and Jan Mayen', 'SJ', 'SJM');</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="20">
+    <row r="215" spans="1:5" ht="21">
       <c r="A215" s="2" t="s">
         <v>643</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Sweden', 'SE', 'SWE');</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="20">
+    <row r="216" spans="1:5" ht="21">
       <c r="A216" s="2" t="s">
         <v>646</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Switzerland', 'CH', 'CHE');</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="20">
+    <row r="217" spans="1:5" ht="21">
       <c r="A217" s="2" t="s">
         <v>649</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Syrian Arab Republic', 'SY', 'SYR');</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="20">
+    <row r="218" spans="1:5" ht="21">
       <c r="A218" s="2" t="s">
         <v>652</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Taiwan (Province of China)', 'TW', 'TWN');</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="20">
+    <row r="219" spans="1:5" ht="21">
       <c r="A219" s="2" t="s">
         <v>655</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Tajikistan', 'TJ', 'TJK');</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="20">
+    <row r="220" spans="1:5" ht="21">
       <c r="A220" s="2" t="s">
         <v>658</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Tanzania, United Republic of', 'TZ', 'TZA');</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="20">
+    <row r="221" spans="1:5" ht="21">
       <c r="A221" s="2" t="s">
         <v>661</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Thailand', 'TH', 'THA');</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="20">
+    <row r="222" spans="1:5" ht="21">
       <c r="A222" s="2" t="s">
         <v>664</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Timor-Leste', 'TL', 'TLS');</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="20">
+    <row r="223" spans="1:5" ht="21">
       <c r="A223" s="2" t="s">
         <v>667</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Togo', 'TG', 'TGO');</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="20">
+    <row r="224" spans="1:5" ht="21">
       <c r="A224" s="2" t="s">
         <v>670</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Tokelau', 'TK', 'TKL');</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="20">
+    <row r="225" spans="1:5" ht="21">
       <c r="A225" s="2" t="s">
         <v>673</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Tonga', 'TO', 'TON');</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="20">
+    <row r="226" spans="1:5" ht="21">
       <c r="A226" s="2" t="s">
         <v>676</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Trinidad and Tobago', 'TT', 'TTO');</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="20">
+    <row r="227" spans="1:5" ht="21">
       <c r="A227" s="2" t="s">
         <v>679</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Tunisia', 'TN', 'TUN');</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="20">
+    <row r="228" spans="1:5" ht="21">
       <c r="A228" s="2" t="s">
         <v>682</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Turkey', 'TR', 'TUR');</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="20">
+    <row r="229" spans="1:5" ht="21">
       <c r="A229" s="2" t="s">
         <v>685</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Turkmenistan', 'TM', 'TKM');</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="20">
+    <row r="230" spans="1:5" ht="21">
       <c r="A230" s="2" t="s">
         <v>688</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Turks and Caicos Islands (the)', 'TC', 'TCA');</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="20">
+    <row r="231" spans="1:5" ht="21">
       <c r="A231" s="2" t="s">
         <v>691</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Tuvalu', 'TV', 'TUV');</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="20">
+    <row r="232" spans="1:5" ht="21">
       <c r="A232" s="2" t="s">
         <v>694</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Uganda', 'UG', 'UGA');</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="20">
+    <row r="233" spans="1:5" ht="21">
       <c r="A233" s="2" t="s">
         <v>697</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Ukraine', 'UA', 'UKR');</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="20">
+    <row r="234" spans="1:5" ht="21">
       <c r="A234" s="2" t="s">
         <v>700</v>
       </c>
@@ -7631,7 +7631,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('United Arab Emirates (the)', 'AE', 'ARE');</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="20">
+    <row r="235" spans="1:5" ht="21">
       <c r="A235" s="2" t="s">
         <v>703</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('United Kingdom of Great Britain and Northern Ireland (the)', 'GB', 'GBR');</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="20">
+    <row r="236" spans="1:5" ht="21">
       <c r="A236" s="2" t="s">
         <v>706</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('United States Minor Outlying Islands (the)', 'UM', 'UMI');</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="20">
+    <row r="237" spans="1:5" ht="21">
       <c r="A237" s="2" t="s">
         <v>709</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('United States of America (the)', 'US', 'USA');</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="20">
+    <row r="238" spans="1:5" ht="21">
       <c r="A238" s="2" t="s">
         <v>712</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Uruguay', 'UY', 'URY');</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="20">
+    <row r="239" spans="1:5" ht="21">
       <c r="A239" s="2" t="s">
         <v>715</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Uzbekistan', 'UZ', 'UZB');</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="20">
+    <row r="240" spans="1:5" ht="21">
       <c r="A240" s="2" t="s">
         <v>718</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Vanuatu', 'VU', 'VUT');</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="20">
+    <row r="241" spans="1:5" ht="21">
       <c r="A241" s="2" t="s">
         <v>721</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Venezuela (Bolivarian Republic of)', 'VE', 'VEN');</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="20">
+    <row r="242" spans="1:5" ht="21">
       <c r="A242" s="2" t="s">
         <v>724</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Viet Nam', 'VN', 'VNM');</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="20">
+    <row r="243" spans="1:5" ht="21">
       <c r="A243" s="2" t="s">
         <v>727</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Virgin Islands (British)', 'VG', 'VGB');</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="20">
+    <row r="244" spans="1:5" ht="21">
       <c r="A244" s="2" t="s">
         <v>730</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Virgin Islands (U.S.)', 'VI', 'VIR');</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="20">
+    <row r="245" spans="1:5" ht="21">
       <c r="A245" s="2" t="s">
         <v>733</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Wallis and Futuna', 'WF', 'WLF');</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="20">
+    <row r="246" spans="1:5" ht="21">
       <c r="A246" s="2" t="s">
         <v>736</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Western Sahara', 'EH', 'ESH');</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="20">
+    <row r="247" spans="1:5" ht="21">
       <c r="A247" s="2" t="s">
         <v>739</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Yemen', 'YE', 'YEM');</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="20">
+    <row r="248" spans="1:5" ht="21">
       <c r="A248" s="2" t="s">
         <v>742</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Zambia', 'ZM', 'ZMB');</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="20">
+    <row r="249" spans="1:5" ht="21">
       <c r="A249" s="2" t="s">
         <v>745</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>INSERT INTO EDM.COUNTRIES (COUNTRY, CODE_ALPHA2, CODE_ALPHA3) VALUES ('Zimbabwe', 'ZW', 'ZWE');</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="20">
+    <row r="250" spans="1:5" ht="21">
       <c r="A250" s="2" t="s">
         <v>748</v>
       </c>
@@ -7929,8 +7929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C256E2EC-9F6A-A947-B1DA-F958ED06B07D}">
   <dimension ref="A1:R251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="A258" sqref="A258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9178,8 +9178,8 @@
         <v>995</v>
       </c>
     </row>
-    <row r="249" spans="1:18">
-      <c r="A249" t="s">
+    <row r="249" spans="1:18" ht="21">
+      <c r="A249" s="3" t="s">
         <v>996</v>
       </c>
     </row>
